--- a/scraping_result.xlsx
+++ b/scraping_result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,10 +479,15 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>Categories</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Abilities</t>
         </is>
@@ -546,10 +551,15 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
           <t>null</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Fire.png"}, {"strong": "1"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Choose 1 Forward. It cannot block this turn."}]]</t>
         </is>
@@ -613,10 +623,15 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>["X"]</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>9000</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>[[{"text": "When Auron deals damage to your opponent, you may play 1 Fire Backup from your hand onto the field"}, {"b": "dull"}, {"text": "."}]]</t>
         </is>
@@ -680,12 +695,6965 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
           <t>null</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>[[{"text": "If you control [Card Name(Sazh)], it cannot be chosen by your opponent's Summons or abilities."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Warrior of Light</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1-005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/005.jpg</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Warrior</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>["DFF", "I"]</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[[{"text": "If Warrior of Light deals damage to a Forward of cost 4 or more, double the damage instead."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Evoker</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1-011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/011.jpg</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Zack</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1-012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/012.jpg</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>SOLDIER</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>[[{"text": "If you control [Card Name (Aerith)], Zach gains +2000 power."}], [{"text": "When Zack enters the field, choose 1 Forward opponent controls. Deal it 2000 damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ranger</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1-008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/008.jpg</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Fire.png"}, {"strong": "1"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Choose 1 Forward of cost 3 or less. Deal it 2000 damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Gadot</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1-007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/007.jpg</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Gadot enters the field, you may play 1 Fire Forward of cost 2 or less from your hand onto the field."}], [{"text": "When Gadot enters the field, all the Forwards you control gain +1000 power until the end of the turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Samurai</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1-014</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/014.jpg</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>[[{"b": "Brave"}, {"text": ""}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sazh</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1-013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/013.jpg</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Ravager</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Choose 1 Forward. Deal it 2000 damage. Sazh will not"}, {"b": "activate* during your next Active Phase. If you have cast [Card Name (Brynhildr)] this turn, deal that Forward 4000 damage instead. Sazh will not *activate"}, {"text": "during your next Active Phase."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1-009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/009.jpg</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>SOLIDER</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>[[{"text": "If you control a [Category (VII)] Forward other than Cloud, Cloud gains +2000 power."}], [{"text": "When Cloud enters the field, choose 1 Forward opponent controls. Deal it 2000 damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Garland</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1-006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/006.jpg</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Knight</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>["DFF", "I"]</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>[[{"b": "Brave"}, {"text": ""}], [{"text": "When Garland attacks, Garland gains +4000 power until the end of he turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jecht</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1-015</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/015.jpg</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Legend</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Guardian</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>["DFF", "X"]</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>[[{"text": "For each Forward opponent controls, Jecht gains +1000 power."}], [{"strong": "Ultimate Jecht Shot"}, {"text": ""}, {"img": "https://ffdecks.com/assets/fftcg/markup/Special.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Fire.png"}, {"strong": "2"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Choose 1 Forward. Break it."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Black Mage</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1-010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/010.jpg</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Fire.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ", put Black Mage into the Break Zone: Choose 1 Forward. Deal it 4000 damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fang</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1-020</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/020.jpg</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Commando</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>[[{"text": "The cost required to cast [Card Name (Bahamut)] is reduced by 2 (it cannot become 0)."}], [{"text": "When Fang attacks, Fang gains"}, {"b": "First Strike"}, {"text": "until the end of the turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Bahamut</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1-018</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/018.jpg</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Legend</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Summon</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>[[{"text": "Choose up to 2 Forwards opponent controls. Deal them 10000 damage. If they are put from the field into the Break Zone this turn, remove them from the game instead."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chocobo Chick</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1-019</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/019.jpg</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Chocobo Chick</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Fire.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Choose 1 Fire Backup."}, {"b": "Activate"}, {"text": "it."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Tifa</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1-016</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/016.jpg</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Martial Artist</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>[[{"b": "Haste"}, {"text": ""}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ifrit</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1-004</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/004.jpg</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Summon</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>[[{"strong": "EX BURST"}, {"text": "Choose 1 Forward. Deal it 4000 damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Auron</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1-002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/002.jpg</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Guardian</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>["X"]</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>9000</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>[[{"text": "The Backups you control cannot be broken by your opponent's Summons or abilities."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Squire</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1-025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/025.jpg</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Firion</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1-022</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/022.jpg</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Warrior</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>["DFF", "II"]</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>[[{"strong": "1"}, {"text": ": Firion gains"}, {"b": "First Strike"}, {"text": "until the end of the turn."}], [{"strong": "1"}, {"text": ": Firion gains"}, {"b": "Brave"}, {"text": "until the end of the turn."}], [{"strong": "2"}, {"text": ": Choose 1 Forward. Deal it 1000 damage."}], [{"strong": "2"}, {"text": ": Firion gains +1000 power until the end of the turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Firion</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1-021</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/021.jpg</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Rebel</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>["II"]</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Firion enters the field, choose 1 Forward. Deal it 4000 damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Squire</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1-026</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/026.jpg</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Red XIII</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1-029</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/029.jpg</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Warrior</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>[[{"b": "First Strike"}, {"text": ""}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Reynn</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1-028</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/028.jpg</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Mirage Keeper</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>["WOFF"]</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>[[{"strong": "EX BURST"}, {"text": "When Reynn enters the field, you may"}, {"b": "search"}, {"text": "for 1 [Card Name (Lann)] and add it to your hand."}], [{"img": "https://ffdecks.com/assets/fftcg/markup/Fire.png"}, {"strong": "1"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Choose 1 [Card Name (Lann)]. It gains +1000 power until the end of the turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Magus</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1-024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/024.jpg</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Magus enters the field, deal 3000 damage to all the forwards opponent controls."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Argath</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1-033</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/033.jpg</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Squire</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Argath enters the field, your opponent discards 1 card from his/her hand."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Bard</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1-035</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/035.jpg</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Choose 1 Forward."}, {"b": "Dull"}, {"text": "it."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Bard</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1-036</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/036.jpg</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ", put Bard into the Break Zone: Your opponent discards 1 card from his/her hand."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Summoner</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1-040</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/040.jpg</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chemist</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1-032</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/032.jpg</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Chemist enters the field, choose 1 Forward. It cannot be broken this turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Shiva</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1-039</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/039.jpg</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Summon</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>[[{"strong": "EX BURST"}, {"text": "Choose 1"}, {"b": "dull"}, {"text": "forward. Deal it 5000 damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Shiva</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1-038</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/038.jpg</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Summon</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>[[{"strong": "EX BURST"}, {"text": "Choose 1 Forward."}, {"b": "Dull* and *Freeze"}, {"text": "it."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Kuja</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1-037</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/037.jpg</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Genome</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>["DFF", "IX"]</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>9000</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Kuja is chosen by a Summon or an ability of your opponent, your opponent discards 1 card from his/her hand."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chemist</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1-031</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/031.jpg</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Chemist enters the field, choose 1 Forward."}, {"b": "Dull"}, {"text": "it."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Orran</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1-034</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/034.jpg</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Astrologer</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>[[{"strong": "Celestial Stasis"}, {"text": ""}, {"img": "https://ffdecks.com/assets/fftcg/markup/Special.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ":"}, {"b": "Dull"}, {"text": "all the Forwards opponent controls."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Lebreau</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1-030</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/030.jpg</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>[[{"text": "The Fire Forwards you control gain +1000 power."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Brynhildr</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1-023</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/023.jpg</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Summon</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>[[{"strong": "EX BURST"}, {"text": "Choose 1 Forward. Deal it 7000 damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Lann</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1-027</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/027.jpg</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Mirage Keeper</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>["WOFF"]</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>[[{"text": "Lann cannot be blocked by a Forward with a power greater than his."}], [{"text": "Lann cannot block a forward with a power greater than his."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Snow</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1-043</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/043.jpg</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Commando</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Snow attacks, choose 1 Forward opponent controls."}, {"b": "Dull* it. If you cast [Card Name (Shiva)] this turn, *Freeze"}, {"text": "it also."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Squall</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1-041</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/041.jpg</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Legend</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>SeeD</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>["VIII"]</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Squall blocks or is blocked, choose 1 Forward. You may deal it 6000 damage."}], [{"strong": "Renzokuken"}, {"text": ""}, {"img": "https://ffdecks.com/assets/fftcg/markup/Special.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"text": ": Squall gains"}, {"b": "First Strike"}, {"text": "until the end of the turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sephiroth</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1-044</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/044.jpg</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>SOLDIER</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>[[{"b": "First Strike"}, {"text": ""}], [{"text": "When Sephiroth enters the field, each player discards 2 cards from his/her hand."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Squall</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1-042</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/042.jpg</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>SeeD</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>["DFF", "VIII"]</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>[[{"text": "If you control [Card Name (Laguna)], Squall gains +3000 power."}], [{"text": "When Squall enters the field, each player discards 1 card from his/her hand. If you control [Card Name (Laguna)], your opponent discards 1 more card from his/her hand."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Serah</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1-045</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/045.jpg</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>L'Cie</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>[[{"text": "If you control [Card Name (Snow)], it cannot be chosen by your opponent's abilities."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Terra</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1-046</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/046.jpg</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Magitek Knight</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>["DFF", "VI"]</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>[[{"text": "The cost required for your opponents to cast Summons is increased by 1."}], [{"strong": "Trance"}, {"text": ""}, {"img": "https://ffdecks.com/assets/fftcg/markup/Special.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"text": ": Until the end of the turn, Terra gains +3000 power and"}, {"b": "First Strike"}, {"text": "."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Devout</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1-048</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/048.jpg</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ", put Devout into the Break Zone: Choose 1 Forward of cost 4 or less from your Break Zone. Play it onto the field. You can only use this ability during your turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Time Mage</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1-049</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/049.jpg</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Choose 1 Forward. It cannot attack this turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Terra</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1-047</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/047.jpg</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Magitek Knight</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>["DFF", "VI"]</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Terra enters the field, choose up to 2"}, {"b": "dull"}, {"text": "Forwards opponent controls. Deal them 4000 damage."}], [{"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"text": ": Choose 1"}, {"b": "dull"}, {"text": "forward. Deal it 1000 damage."}], [{"strong": "Magic Charge"}, {"text": ""}, {"img": "https://ffdecks.com/assets/fftcg/markup/Special.png"}, {"text": ": Terra gains \"If Terra deals damage to a Forward, double the damage\" until the end of the turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Knight</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1-050</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/050.jpg</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Nooj</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1-051</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/051.jpg</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Mevyn</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>["X"]</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Nooj enters the field, your opponent discards 1 card from his/her hand."}], [{"text": "When Nooj leaves the field, your opponent draws 1 card."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Dark Knight</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1-054</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/054_480x480.jpg</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"text": ": Deal 1000 damage to all the Forwards opponent controls."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Hades</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1-052</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/052.jpg</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Summon</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>[[{"text": "Choose 1 Forward and 1 Backup opponent controls."}, {"b": "Dull"}, {"text": "the Forward and return the Backup to its owner's hand. Your opponent discards 1 card from his/her hand."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Dark Knight</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1-055</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/055.jpg</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Dark Knight is put from the field into the Break Zone, Dark Knight deals you 1 point of damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Josef</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1-056</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/056.jpg</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Rebel</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>["II"]</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>[[{"b": "Brave"}, {"text": ""}], [{"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ", put Josef into the Break Zone: Choose 1 blocking Forward. It cannot be broken this turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Duke Larg</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1-057</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/057.jpg</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Duke</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>[[{"text": "The Ice Forwards you control gain +1000 power."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1-058</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/058.jpg</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Legend</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Marksman</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>["VIII"]</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>9000</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Laguna deals damage to your opponent, choose 1"}, {"b": "dull"}, {"text": "Forward. You may deal it 7000 damage."}], [{"strong": "Desperado"}, {"text": ""}, {"img": "https://ffdecks.com/assets/fftcg/markup/Special.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"text": ": Choose 1"}, {"b": "dull"}, {"text": "Forward. Deal it 9000 damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Leon</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1-060</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/060.jpg</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Rebel</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>["II"]</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>9000</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Leon enters the field, your opponent may play 1 Character Card from his/her hand onto the field."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1-059</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/059.jpg</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Marksman</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>["DFF", "VIII"]</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>[[{"strong": "EX BURST"}, {"text": "When Laguna enters the field, choose 1 Forward opponent controls."}, {"b": "Dull* it. If you control [Card Name (Squall)], *Freeze"}, {"text": "this forward also."}], [{"text": "If you control [Card Name (Squall)], Laguna gains +2000 power."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Summoner</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1-053</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/053.jpg</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"text": ", put Summoner into the Break Zone: Choose 1 Summon. Cancel its effect."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Aerith</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1-064</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/064.jpg</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Ancient</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Aerith enters the field, choose up to 3 Backups you control other than Aerith."}, {"b": "Activate"}, {"text": "them."}], [{"strong": "Planet Protector"}, {"text": ""}, {"img": "https://ffdecks.com/assets/fftcg/markup/Special.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ":"}, {"b": "Activate"}, {"text": "all Forwards you control. They cannot be chosen by Summons or abilities this turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Onion Knight</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1-067</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/067.jpg</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Ninja</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>["DFF", "III"]</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Onion Knight enters the field, choose 1 Backup you control."}, {"b": "Activate"}, {"text": "it."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Alexander</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1-061</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/061.jpg</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Summon</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>[[{"strong": "EX BURST"}, {"text": "Choose 1 Forward of cost 5 or more. Break it."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Dancer</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1-066</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/066.jpg</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Deal 1000 damage to all the Forwards opponent controls."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Aerith</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1-065</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/065.jpg</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Ancient</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Aerith enters the field, choose 1 Backup you control other than Aerith."}, {"b": "Activate"}, {"text": "it."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Valefor</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1-062</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/062.jpg</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Legend</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Summon</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>["X"]</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>[[{"text": "Return all Forwards to their owners' hands."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Vaan</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1-063</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/063.jpg</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Sky Pirate</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>["DFF", "XII"]</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Vaan enters the field, you may play 1 Wind Forward of cost 3 or less from your hand onto the Field."}], [{"text": "When Vaan attacks, choose up to 2 Backups you control."}, {"b": "Activate"}, {"text": "them."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Evoker</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1-068</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/068.jpg</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Thief</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1-069</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/069.jpg</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Thief enters the field, your opponent puts the top card of his/her deck into the Break Zone."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Zidane</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1-071</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/071.jpg</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Legend</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Genome</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>["DFF", "IX"]</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>[[{"text": "Zidane cannot be chosen by your opponent's Summons or abilities."}], [{"text": "Zidane cannot be blocked by a Forward of cost 4 or more."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Thief</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1-070</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/070.jpg</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Thief enters the field, your opponent puts the top card of his/her deck into the Break Zone."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Chocobo</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1-075</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/075.jpg</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>[[{"b": "Haste"}, {"text": ""}], [{"text": "When Chocobo forms a party and attacks, Chocobo and all of the Forwards forming a party with it gain +3000 power until the end of the turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Cid Highwind</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1-072</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/072.jpg</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Pilot</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>[[{"text": "When the Forward that took damage from Cid Highwind is put from the field into the Break Zone on the same turn, your opponent puts the top 2 cards of his/her deck into the Break Zone."}], [{"strong": "Highwind"}, {"text": ""}, {"img": "https://ffdecks.com/assets/fftcg/markup/Special.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Your opponent puts the top 2 cards of his/her deck into the Break Zone."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Sylph</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1-074</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/074.jpg</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Summon</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>[[{"strong": "EX BURST"}, {"text": "Choose 1 Forward."}, {"b": "Activate"}, {"text": "it. All the Forwards you control gain +1000 power until the end of the turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Devout</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1-077</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/077.jpg</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Devout enters the field, choose 1 Forward of cost 2 or less from your Break Zone. Play it onto the field."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Ninja</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1-078</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/078.jpg</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Wind.png"}, {"text": ", discard 1 card from your hand: Choose 1 Forward. Deal it 2000 damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Chocobo</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1-076</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/076.jpg</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Chocobo forms a party and attacks, Chocobo and all the Forwards forming a party with it gain +2000 power until the end of the turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Nora</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1-079</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/079.jpg</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Mother</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>[[{"strong": "EX BURST"}, {"text": "When Nora enters the field, you may"}, {"b": "search"}, {"text": "for 1 [Card Name (Hope)] and add it to your hand."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Bartz</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1-080</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/080.jpg</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Wanderer</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>["DFF", "V"]</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>9000</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>[[{"strong": "EX BURST"}, {"text": "When Bartz enters the field,"}, {"b": "activate"}, {"text": "all the Wind Characters you control."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Cid Highwind</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1-073</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/073.jpg</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Pilot</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>[[{"text": "When the Forward that took damage from Cid Highwind is put from the field into the Break Zone on the same turn, your opponent puts the top 2 cards of his/her deck into the Break Zone."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1-083</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/083.jpg</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Rebel</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>["II"]</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>[[{"text": "The Forwards you control have +1000 power."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Bartz</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1-081</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/081.jpg</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Wanderer</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>["DFF", "V"]</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>[[{"text": "Bartz has all the jobs."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Yuffie</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1-085</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/085.jpg</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Ninja</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>[[{"text": "Yuffie cannot be blocked by a Forward of cost 4 or more."}], [{"strong": "Bloodfest"}, {"text": ""}, {"img": "https://ffdecks.com/assets/fftcg/markup/Special.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Chose up to 3 Forwards. Divide 6000 damage among them as you like. (Unit must be 1000.)"}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Hope</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1-082</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/082.jpg</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Ravager</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Hope enters the field, choose 1 Backup you control."}, {"b": "Activate* it. If you have cast [Card Name (Alexander)] this turn, *activate"}, {"text": "all the Backups you control instead."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Yuffie</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1-086</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/086.jpg</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Ninja</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>[[{"text": "Yuffie cannot be blocked by a Forward of cost 3 or more."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Y'shtola</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1-084</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/084.jpg</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Scion of the Seventh Dawn</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>["DFF", "XIV"]</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Wind.png"}, {"text": ": Choose 1 Forward. Deal it 1000 damage."}], [{"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Choose 1 Forward. Deal it 2000 damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Archer</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1-087</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/087.jpg</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>[[{"b": "First Strike"}, {"text": ""}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Rikku</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1-089</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/089.jpg</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Al Bhed</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>["X"]</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Wind.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Your opponent puts 1 card from the top of his deck into the Break Zone."}], [{"strong": "Mug"}, {"text": ""}, {"img": "https://ffdecks.com/assets/fftcg/markup/Special.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Wind.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Your opponent puts the top 2 cards of his/her deck into the Break Zone. You draw 1 card."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Archer</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1-088</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/088.jpg</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Wind.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Wind.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ", put archer into the Break Zone: Choose 1 Backup of cost 3 or less. Break it."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Rikku</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1-090</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/090.jpg</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Al Bhed</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>["X"]</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Rikku enters the field, choose up to 5 Backups you control. Return them to their owner's hand."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Amodar</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1-091</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/091.jpg</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Earth</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Lieutenant</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>[[{"strong": "EX BURST"}, {"text": "When Amodar enters the field, you may"}, {"b": "search"}, {"text": "for 1 [Card Name (Lightning)] or [Card Name (Snow)] and add it to your hand."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Dark Knight</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1-092</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/092.jpg</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Earth</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>[[{"text": "For each point of damage you have received, Dark Knight gains +1000 power."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Vincent</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1-094</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/094.jpg</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Earth</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Gunslinger</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>9000</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Vincent attacks, Vincent gains"}, {"b": "First Strike"}, {"text": "until the end of the turn."}], [{"strong": "Berserk Drive"}, {"text": ""}, {"img": "https://ffdecks.com/assets/fftcg/markup/Special.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Choose 1 Forward. Deal it 6000 damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Enna Kros</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1-095</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/095.jpg</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Earth</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Creator of Worlds</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>["WOFF"]</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>[[{"text": "The Earth Forwards you control gain +1000 power."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Vanille</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1-093</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/093.jpg</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Earth</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Saboteur</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Vanille is put from the field into the Break Zone,"}, {"b": "search* for 1 [Card Name (Hecatoncheir)] and remove it from the game. If you do so, return Vanille onto the field *dull"}, {"text": "."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Guy</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1-097</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/097.jpg</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Earth</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Rebel</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>["II"]</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>[[{"b": "Brave"}, {"text": ""}], [{"text": "Guy cannot become"}, {"b": "dull"}, {"text": "by your opponent's Summons or abilities."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Mystic</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1-096</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/096.jpg</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Earth</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>[[{"text": "Put 1 Backup into the Break Zone: Mystic gains +3000 power until the end of the turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Gabranth</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1-098</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/098.jpg</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Earth</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Judge</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>["DFF", "XII"]</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>[[{"text": "For each point of damage you have received, Gabranth gains +1000 power."}], [{"text": "If you have received 6 points of damage or more, Gabranth gains"}, {"b": "Brave"}, {"text": "."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Black Belt</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1-100</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/100.jpg</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Earth</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Earth.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Choose 1 blocking Forward. It gains +1000 power until the end of the turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Black Belt</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1-099</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/099.jpg</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Earth</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Standard Unit</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>[[]]</t>
         </is>
       </c>
     </row>

--- a/scraping_result.xlsx
+++ b/scraping_result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ex Burst </t>
+          <t>Ex Burst</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -496,22 +496,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Warrior of Light</t>
+          <t>Red Mage</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1-005</t>
+          <t>1-003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://storage.googleapis.com/ffdecks-card-images/005.jpg</t>
+          <t>https://storage.googleapis.com/ffdecks-card-images/003.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>Common</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>["Fire"]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Forward</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -541,97 +541,7153 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Warrior</t>
+          <t>["Standard Unit"]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>["DFF", "I"]</t>
+          <t>["III"]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>null</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[[{"text": "If Warrior of Light deals damage to a Forward of cost 4 or more, double the damage instead."}]]</t>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Fire.png"}, {"strong": "1"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Choose 1 Forward. It cannot block this turn."}]]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Auron</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1-001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/001_480x480.jpg</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>["Guardian"]</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>["X"]</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>9000</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Auron deals damage to your opponent, you may play 1 Fire Backup from your hand onto the field"}, {"b": "dull"}, {"text": "."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Dajh</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1-017</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/017.jpg</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>["L'Cie"]</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[[{"text": "If you control [Card Name(Sazh)], it cannot be chosen by your opponent's Summons or abilities."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Warrior of Light</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1-005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/005.jpg</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>["Warrior"]</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>["DFF", "I"]</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[[{"text": "If Warrior of Light deals damage to a Forward of cost 4 or more, double the damage instead."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Evoker</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>1-011</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://storage.googleapis.com/ffdecks-card-images/011.jpg</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Common</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Opus I</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fire</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Backup</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Standard Unit</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>["III"]</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Zack</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1-012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/012.jpg</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>["SOLDIER"]</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>[[{"text": "If you control [Card Name (Aerith)], Zach gains +2000 power."}], [{"text": "When Zack enters the field, choose 1 Forward opponent controls. Deal it 2000 damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ranger</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1-008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/008.jpg</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Fire.png"}, {"strong": "1"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Choose 1 Forward of cost 3 or less. Deal it 2000 damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Gadot</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1-007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/007.jpg</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>["NORA"]</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Gadot enters the field, you may play 1 Fire Forward of cost 2 or less from your hand onto the field."}], [{"text": "When Gadot enters the field, all the Forwards you control gain +1000 power until the end of the turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Samurai</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1-014</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/014.jpg</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>[[{"b": "Brave"}, {"text": ""}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sazh</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1-013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/013.jpg</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>["Ravager"]</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Choose 1 Forward. Deal it 2000 damage. Sazh will not"}, {"b": "activate* during your next Active Phase. If you have cast [Card Name (Brynhildr)] this turn, deal that Forward 4000 damage instead. Sazh will not *activate"}, {"text": "during your next Active Phase."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1-009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/009.jpg</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>["SOLIDER"]</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>[[{"text": "If you control a [Category (VII)] Forward other than Cloud, Cloud gains +2000 power."}], [{"text": "When Cloud enters the field, choose 1 Forward opponent controls. Deal it 2000 damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Garland</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1-006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/006.jpg</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>["Knight"]</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>["DFF", "I"]</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>[[{"b": "Brave"}, {"text": ""}], [{"text": "When Garland attacks, Garland gains +4000 power until the end of he turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jecht</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1-015</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/015.jpg</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Legend</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>["Guardian"]</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>["DFF", "X"]</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>[[{"text": "For each Forward opponent controls, Jecht gains +1000 power."}], [{"strong": "Ultimate Jecht Shot"}, {"text": ""}, {"img": "https://ffdecks.com/assets/fftcg/markup/Special.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Fire.png"}, {"strong": "2"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Choose 1 Forward. Break it."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Black Mage</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1-010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/010.jpg</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Fire.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ", put Black Mage into the Break Zone: Choose 1 Forward. Deal it 4000 damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fang</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1-020</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/020.jpg</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>["Commando"]</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>[[{"text": "The cost required to cast [Card Name (Bahamut)] is reduced by 2 (it cannot become 0)."}], [{"text": "When Fang attacks, Fang gains"}, {"b": "First Strike"}, {"text": "until the end of the turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Bahamut</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1-018</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/018.jpg</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Legend</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Summon</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>[""]</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>[[{"text": "Choose up to 2 Forwards opponent controls. Deal them 10000 damage. If they are put from the field into the Break Zone this turn, remove them from the game instead."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chocobo Chick</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1-019</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/019.jpg</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>["Chocobo Chick"]</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Fire.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Choose 1 Fire Backup."}, {"b": "Activate"}, {"text": "it."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Tifa</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1-016</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/016.jpg</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>["Martial Artist"]</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>[[{"b": "Haste"}, {"text": ""}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ifrit</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1-004</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/004.jpg</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Summon</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>[""]</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>[[{"strong": "EX BURST"}, {"text": "Choose 1 Forward. Deal it 4000 damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Auron</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1-002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/002.jpg</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>["Guardian"]</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>["X"]</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>9000</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>[[{"text": "The Backups you control cannot be broken by your opponent's Summons or abilities."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Squire</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1-025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/025.jpg</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Firion</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1-022</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/022.jpg</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>["Warrior"]</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>["DFF", "II"]</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>[[{"strong": "1"}, {"text": ": Firion gains"}, {"b": "First Strike"}, {"text": "until the end of the turn."}], [{"strong": "1"}, {"text": ": Firion gains"}, {"b": "Brave"}, {"text": "until the end of the turn."}], [{"strong": "2"}, {"text": ": Choose 1 Forward. Deal it 1000 damage."}], [{"strong": "2"}, {"text": ": Firion gains +1000 power until the end of the turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Firion</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1-021</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/021.jpg</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>["Rebel"]</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>["II"]</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Firion enters the field, choose 1 Forward. Deal it 4000 damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Squire</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1-026</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/026.jpg</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Red XIII</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1-029</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/029.jpg</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>["Warrior"]</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>[[{"b": "First Strike"}, {"text": ""}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Reynn</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1-028</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/028.jpg</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>["Mirage Keeper"]</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>["WOFF"]</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>[[{"strong": "EX BURST"}, {"text": "When Reynn enters the field, you may"}, {"b": "search"}, {"text": "for 1 [Card Name (Lann)] and add it to your hand."}], [{"img": "https://ffdecks.com/assets/fftcg/markup/Fire.png"}, {"strong": "1"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Choose 1 [Card Name (Lann)]. It gains +1000 power until the end of the turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Magus</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1-024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/024.jpg</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Magus enters the field, deal 3000 damage to all the forwards opponent controls."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Argath</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1-033</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/033.jpg</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>["Squire"]</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Argath enters the field, your opponent discards 1 card from his/her hand."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Bard</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1-035</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/035.jpg</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Choose 1 Forward."}, {"b": "Dull"}, {"text": "it."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Bard</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1-036</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/036.jpg</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ", put Bard into the Break Zone: Your opponent discards 1 card from his/her hand."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Summoner</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1-040</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/040.jpg</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chemist</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1-032</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/032.jpg</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Chemist enters the field, choose 1 Forward. It cannot be broken this turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Shiva</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1-039</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/039.jpg</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Summon</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>[""]</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>[[{"strong": "EX BURST"}, {"text": "Choose 1"}, {"b": "dull"}, {"text": "forward. Deal it 5000 damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Shiva</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1-038</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/038.jpg</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Summon</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>[""]</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>[[{"strong": "EX BURST"}, {"text": "Choose 1 Forward."}, {"b": "Dull* and *Freeze"}, {"text": "it."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Kuja</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1-037</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/037.jpg</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>["Genome"]</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>["DFF", "IX"]</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>9000</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Kuja is chosen by a Summon or an ability of your opponent, your opponent discards 1 card from his/her hand."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chemist</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1-031</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/031.jpg</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Chemist enters the field, choose 1 Forward."}, {"b": "Dull"}, {"text": "it."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Orran</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1-034</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/034.jpg</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>["Astrologer"]</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>[[{"strong": "Celestial Stasis"}, {"text": ""}, {"img": "https://ffdecks.com/assets/fftcg/markup/Special.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ":"}, {"b": "Dull"}, {"text": "all the Forwards opponent controls."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Lebreau</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1-030</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/030.jpg</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>["NORA"]</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>[[{"text": "The Fire Forwards you control gain +1000 power."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Brynhildr</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1-023</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/023.jpg</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Summon</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>[""]</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>[[{"strong": "EX BURST"}, {"text": "Choose 1 Forward. Deal it 7000 damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Lann</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1-027</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/027.jpg</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>["Fire"]</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>["Mirage Keeper"]</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>["WOFF"]</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>[[{"text": "Lann cannot be blocked by a Forward with a power greater than his."}], [{"text": "Lann cannot block a forward with a power greater than his."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Snow</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1-043</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/043.jpg</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>["Commando"]</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Snow attacks, choose 1 Forward opponent controls."}, {"b": "Dull* it. If you cast [Card Name (Shiva)] this turn, *Freeze"}, {"text": "it also."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Squall</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1-041</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/041.jpg</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Legend</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>["SeeD"]</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>["VIII"]</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Squall blocks or is blocked, choose 1 Forward. You may deal it 6000 damage."}], [{"strong": "Renzokuken"}, {"text": ""}, {"img": "https://ffdecks.com/assets/fftcg/markup/Special.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"text": ": Squall gains"}, {"b": "First Strike"}, {"text": "until the end of the turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sephiroth</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1-044</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/044.jpg</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>["SOLDIER"]</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>[[{"b": "First Strike"}, {"text": ""}], [{"text": "When Sephiroth enters the field, each player discards 2 cards from his/her hand."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Squall</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1-042</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/042.jpg</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>["SeeD"]</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>["DFF", "VIII"]</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>[[{"text": "If you control [Card Name (Laguna)], Squall gains +3000 power."}], [{"text": "When Squall enters the field, each player discards 1 card from his/her hand. If you control [Card Name (Laguna)], your opponent discards 1 more card from his/her hand."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Serah</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1-045</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/045.jpg</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>["L'Cie"]</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>[[{"text": "If you control [Card Name (Snow)], it cannot be chosen by your opponent's abilities."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Terra</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1-046</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/046.jpg</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>["Magitek Knight"]</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>["DFF", "VI"]</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>[[{"text": "The cost required for your opponents to cast Summons is increased by 1."}], [{"strong": "Trance"}, {"text": ""}, {"img": "https://ffdecks.com/assets/fftcg/markup/Special.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"text": ": Until the end of the turn, Terra gains +3000 power and"}, {"b": "First Strike"}, {"text": "."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Devout</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1-048</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/048.jpg</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ", put Devout into the Break Zone: Choose 1 Forward of cost 4 or less from your Break Zone. Play it onto the field. You can only use this ability during your turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Time Mage</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1-049</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/049.jpg</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Choose 1 Forward. It cannot attack this turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Terra</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1-047</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/047.jpg</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>["Magitek Knight"]</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>["DFF", "VI"]</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Terra enters the field, choose up to 2"}, {"b": "dull"}, {"text": "Forwards opponent controls. Deal them 4000 damage."}], [{"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"text": ": Choose 1"}, {"b": "dull"}, {"text": "forward. Deal it 1000 damage."}], [{"strong": "Magic Charge"}, {"text": ""}, {"img": "https://ffdecks.com/assets/fftcg/markup/Special.png"}, {"text": ": Terra gains \"If Terra deals damage to a Forward, double the damage\" until the end of the turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Knight</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1-050</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/050.jpg</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Nooj</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1-051</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/051.jpg</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>["Mevyn"]</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>["X"]</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Nooj enters the field, your opponent discards 1 card from his/her hand."}], [{"text": "When Nooj leaves the field, your opponent draws 1 card."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Dark Knight</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1-054</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/054_480x480.jpg</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"text": ": Deal 1000 damage to all the Forwards opponent controls."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Hades</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1-052</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/052.jpg</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Summon</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>[""]</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>[[{"text": "Choose 1 Forward and 1 Backup opponent controls."}, {"b": "Dull"}, {"text": "the Forward and return the Backup to its owner's hand. Your opponent discards 1 card from his/her hand."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Dark Knight</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1-055</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/055.jpg</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Dark Knight is put from the field into the Break Zone, Dark Knight deals you 1 point of damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Josef</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1-056</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/056.jpg</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>["Rebel"]</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>["II"]</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>[[{"b": "Brave"}, {"text": ""}], [{"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ", put Josef into the Break Zone: Choose 1 blocking Forward. It cannot be broken this turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Duke Larg</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1-057</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/057.jpg</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>["Duke"]</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>[[{"text": "The Ice Forwards you control gain +1000 power."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1-058</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/058.jpg</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Legend</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>["Marksman"]</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>["VIII"]</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>9000</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Laguna deals damage to your opponent, choose 1"}, {"b": "dull"}, {"text": "Forward. You may deal it 7000 damage."}], [{"strong": "Desperado"}, {"text": ""}, {"img": "https://ffdecks.com/assets/fftcg/markup/Special.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"text": ": Choose 1"}, {"b": "dull"}, {"text": "Forward. Deal it 9000 damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Leon</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1-060</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/060.jpg</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>["Rebel"]</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>["II"]</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>9000</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Leon enters the field, your opponent may play 1 Character Card from his/her hand onto the field."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1-059</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/059.jpg</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>["Marksman"]</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>["DFF", "VIII"]</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>[[{"strong": "EX BURST"}, {"text": "When Laguna enters the field, choose 1 Forward opponent controls."}, {"b": "Dull* it. If you control [Card Name (Squall)], *Freeze"}, {"text": "this forward also."}], [{"text": "If you control [Card Name (Squall)], Laguna gains +2000 power."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Summoner</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1-053</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/053.jpg</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>["Ice"]</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Ice.png"}, {"text": ", put Summoner into the Break Zone: Choose 1 Summon. Cancel its effect."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Aerith</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1-064</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/064.jpg</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>["Ancient"]</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Aerith enters the field, choose up to 3 Backups you control other than Aerith."}, {"b": "Activate"}, {"text": "them."}], [{"strong": "Planet Protector"}, {"text": ""}, {"img": "https://ffdecks.com/assets/fftcg/markup/Special.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ":"}, {"b": "Activate"}, {"text": "all Forwards you control. They cannot be chosen by Summons or abilities this turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Onion Knight</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1-067</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/067.jpg</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>["Ninja"]</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>["DFF", "III"]</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Onion Knight enters the field, choose 1 Backup you control."}, {"b": "Activate"}, {"text": "it."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Alexander</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1-061</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/061.jpg</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Summon</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>[""]</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>[[{"strong": "EX BURST"}, {"text": "Choose 1 Forward of cost 5 or more. Break it."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Dancer</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1-066</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/066.jpg</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Deal 1000 damage to all the Forwards opponent controls."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Aerith</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1-065</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/065.jpg</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>["Ancient"]</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Aerith enters the field, choose 1 Backup you control other than Aerith."}, {"b": "Activate"}, {"text": "it."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Valefor</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1-062</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/062.jpg</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Legend</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Summon</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>[""]</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>["X"]</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>[[{"text": "Return all Forwards to their owners' hands."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Vaan</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1-063</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/063.jpg</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>["Sky Pirate"]</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>["DFF", "XII"]</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Vaan enters the field, you may play 1 Wind Forward of cost 3 or less from your hand onto the Field."}], [{"text": "When Vaan attacks, choose up to 2 Backups you control."}, {"b": "Activate"}, {"text": "them."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Evoker</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1-068</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/068.jpg</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Thief</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1-069</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/069.jpg</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Thief enters the field, your opponent puts the top card of his/her deck into the Break Zone."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Zidane</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1-071</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/071.jpg</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Legend</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>["Genome"]</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>["DFF", "IX"]</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>[[{"text": "Zidane cannot be chosen by your opponent's Summons or abilities."}], [{"text": "Zidane cannot be blocked by a Forward of cost 4 or more."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Thief</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1-070</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/070.jpg</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Thief enters the field, your opponent puts the top card of his/her deck into the Break Zone."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Chocobo</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1-075</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/075.jpg</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>[[{"b": "Haste"}, {"text": ""}], [{"text": "When Chocobo forms a party and attacks, Chocobo and all of the Forwards forming a party with it gain +3000 power until the end of the turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Cid Highwind</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1-072</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/072.jpg</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>["Pilot"]</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>[[{"text": "When the Forward that took damage from Cid Highwind is put from the field into the Break Zone on the same turn, your opponent puts the top 2 cards of his/her deck into the Break Zone."}], [{"strong": "Highwind"}, {"text": ""}, {"img": "https://ffdecks.com/assets/fftcg/markup/Special.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Your opponent puts the top 2 cards of his/her deck into the Break Zone."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Sylph</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1-074</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/074.jpg</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Summon</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>[""]</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>[[{"strong": "EX BURST"}, {"text": "Choose 1 Forward."}, {"b": "Activate"}, {"text": "it. All the Forwards you control gain +1000 power until the end of the turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Devout</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1-077</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/077.jpg</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Devout enters the field, choose 1 Forward of cost 2 or less from your Break Zone. Play it onto the field."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Ninja</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1-078</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/078.jpg</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Wind.png"}, {"text": ", discard 1 card from your hand: Choose 1 Forward. Deal it 2000 damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Chocobo</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1-076</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/076.jpg</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Chocobo forms a party and attacks, Chocobo and all the Forwards forming a party with it gain +2000 power until the end of the turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Nora</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1-079</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/079.jpg</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>["Mother"]</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>[[{"strong": "EX BURST"}, {"text": "When Nora enters the field, you may"}, {"b": "search"}, {"text": "for 1 [Card Name (Hope)] and add it to your hand."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Bartz</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1-080</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/080.jpg</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>["Wanderer"]</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>["DFF", "V"]</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>9000</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>[[{"strong": "EX BURST"}, {"text": "When Bartz enters the field,"}, {"b": "activate"}, {"text": "all the Wind Characters you control."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Cid Highwind</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1-073</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/073.jpg</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>["Pilot"]</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>[[{"text": "When the Forward that took damage from Cid Highwind is put from the field into the Break Zone on the same turn, your opponent puts the top 2 cards of his/her deck into the Break Zone."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1-083</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/083.jpg</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>["Rebel"]</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>["II"]</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>[[{"text": "The Forwards you control have +1000 power."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Bartz</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1-081</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/081.jpg</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>["Wanderer"]</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>["DFF", "V"]</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>[[{"text": "Bartz has all the jobs."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Yuffie</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1-085</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/085.jpg</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>["Ninja"]</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>[[{"text": "Yuffie cannot be blocked by a Forward of cost 4 or more."}], [{"strong": "Bloodfest"}, {"text": ""}, {"img": "https://ffdecks.com/assets/fftcg/markup/Special.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Chose up to 3 Forwards. Divide 6000 damage among them as you like. (Unit must be 1000.)"}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Hope</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1-082</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/082.jpg</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>["Ravager"]</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Hope enters the field, choose 1 Backup you control."}, {"b": "Activate* it. If you have cast [Card Name (Alexander)] this turn, *activate"}, {"text": "all the Backups you control instead."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Yuffie</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1-086</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/086.jpg</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>["Ninja"]</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>[[{"text": "Yuffie cannot be blocked by a Forward of cost 3 or more."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Y'shtola</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1-084</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/084.jpg</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>["Scion of the Seventh Dawn"]</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>["DFF", "XIV"]</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Wind.png"}, {"text": ": Choose 1 Forward. Deal it 1000 damage."}], [{"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Choose 1 Forward. Deal it 2000 damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Archer</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1-087</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/087.jpg</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>[[{"b": "First Strike"}, {"text": ""}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Rikku</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1-089</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/089.jpg</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>["Al Bhed"]</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>["X"]</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Wind.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Your opponent puts 1 card from the top of his deck into the Break Zone."}], [{"strong": "Mug"}, {"text": ""}, {"img": "https://ffdecks.com/assets/fftcg/markup/Special.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Wind.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Your opponent puts the top 2 cards of his/her deck into the Break Zone. You draw 1 card."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Archer</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1-088</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/088.jpg</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Wind.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Wind.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ", put archer into the Break Zone: Choose 1 Backup of cost 3 or less. Break it."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Rikku</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1-090</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/090.jpg</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>["Wind"]</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>["Al Bhed"]</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>["X"]</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Rikku enters the field, choose up to 5 Backups you control. Return them to their owner's hand."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Amodar</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1-091</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/091.jpg</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>["Earth"]</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>["Lieutenant"]</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>[[{"strong": "EX BURST"}, {"text": "When Amodar enters the field, you may"}, {"b": "search"}, {"text": "for 1 [Card Name (Lightning)] or [Card Name (Snow)] and add it to your hand."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Dark Knight</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1-092</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/092.jpg</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>["Earth"]</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>[[{"text": "For each point of damage you have received, Dark Knight gains +1000 power."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Vincent</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1-094</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/094.jpg</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>["Earth"]</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>["Gunslinger"]</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>["VII"]</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>9000</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Vincent attacks, Vincent gains"}, {"b": "First Strike"}, {"text": "until the end of the turn."}], [{"strong": "Berserk Drive"}, {"text": ""}, {"img": "https://ffdecks.com/assets/fftcg/markup/Special.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Choose 1 Forward. Deal it 6000 damage."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Enna Kros</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1-095</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/095.jpg</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>["Earth"]</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>["Creator of Worlds"]</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>["WOFF"]</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>[[{"text": "The Earth Forwards you control gain +1000 power."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Vanille</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1-093</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/093.jpg</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>["Earth"]</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>["Saboteur"]</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>["XIII"]</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>[[{"text": "When Vanille is put from the field into the Break Zone,"}, {"b": "search* for 1 [Card Name (Hecatoncheir)] and remove it from the game. If you do so, return Vanille onto the field *dull"}, {"text": "."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Guy</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1-097</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/097.jpg</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>["Earth"]</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>["Rebel"]</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>["II"]</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>[[{"b": "Brave"}, {"text": ""}], [{"text": "Guy cannot become"}, {"b": "dull"}, {"text": "by your opponent's Summons or abilities."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Mystic</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1-096</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/096.jpg</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>["Earth"]</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>["FFT"]</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>[[{"text": "Put 1 Backup into the Break Zone: Mystic gains +3000 power until the end of the turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Gabranth</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1-098</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/098.jpg</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>["Earth"]</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>["Judge"]</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>["DFF", "XII"]</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>[[{"text": "For each point of damage you have received, Gabranth gains +1000 power."}], [{"text": "If you have received 6 points of damage or more, Gabranth gains"}, {"b": "Brave"}, {"text": "."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Black Belt</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1-100</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/100.jpg</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>["Earth"]</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>[[{"img": "https://ffdecks.com/assets/fftcg/markup/Earth.png"}, {"img": "https://ffdecks.com/assets/fftcg/markup/Dull.png"}, {"text": ": Choose 1 blocking Forward. It gains +1000 power until the end of the turn."}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Black Belt</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1-099</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/ffdecks-card-images/099.jpg</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Opus I</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>["Earth"]</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>["Standard Unit"]</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>["III"]</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
